--- a/Exp2021/Заповедник/Акт группового учета ГСМ за АВГУСТ 2021.xlsx
+++ b/Exp2021/Заповедник/Акт группового учета ГСМ за АВГУСТ 2021.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="53">
   <si>
     <t>Приложение № 10</t>
   </si>
@@ -115,9 +115,6 @@
     <t>АИ-92</t>
   </si>
   <si>
-    <t>265.5</t>
-  </si>
-  <si>
     <t>АИ-95</t>
   </si>
   <si>
@@ -130,13 +127,7 @@
     <t>1. Масло двухтактное</t>
   </si>
   <si>
-    <t>3.762</t>
-  </si>
-  <si>
     <t>2. Масло четырехтактное</t>
-  </si>
-  <si>
-    <t>0.004</t>
   </si>
   <si>
     <t>3.</t>
@@ -189,8 +180,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="0000000"/>
@@ -295,7 +286,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -310,23 +309,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -339,77 +344,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -424,6 +367,38 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -431,8 +406,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -453,7 +444,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -465,25 +510,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -495,55 +522,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -561,6 +540,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -573,7 +570,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -585,19 +582,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -609,31 +600,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -840,17 +831,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -879,6 +864,32 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -902,173 +913,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="20" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="15" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="9" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1562,7 +1553,7 @@
   <dimension ref="A2:CD121"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="S36" sqref="S36:V36"/>
+      <selection activeCell="M35" sqref="M35:O35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.7037037037037" defaultRowHeight="12.75" customHeight="1"/>
@@ -3506,14 +3497,10 @@
       <c r="J35" s="21"/>
       <c r="K35" s="21"/>
       <c r="L35" s="21"/>
-      <c r="M35" s="26" t="s">
-        <v>33</v>
-      </c>
+      <c r="M35" s="26"/>
       <c r="N35" s="26"/>
       <c r="O35" s="26"/>
-      <c r="P35" s="22">
-        <v>0</v>
-      </c>
+      <c r="P35" s="22"/>
       <c r="Q35" s="22"/>
       <c r="R35" s="22"/>
       <c r="S35" s="22"/>
@@ -3583,7 +3570,7 @@
     </row>
     <row r="36" s="5" customFormat="1" customHeight="1" spans="1:82">
       <c r="A36" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B36" s="21"/>
       <c r="C36" s="21"/>
@@ -3669,7 +3656,7 @@
     </row>
     <row r="37" s="5" customFormat="1" customHeight="1" spans="1:82">
       <c r="A37" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B37" s="21"/>
       <c r="C37" s="21"/>
@@ -3755,7 +3742,7 @@
     </row>
     <row r="38" s="5" customFormat="1" customHeight="1" spans="1:82">
       <c r="A38" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B38" s="20"/>
       <c r="C38" s="20"/>
@@ -3841,7 +3828,7 @@
     </row>
     <row r="39" s="5" customFormat="1" customHeight="1" spans="1:82">
       <c r="A39" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B39" s="21"/>
       <c r="C39" s="21"/>
@@ -3854,14 +3841,10 @@
       <c r="J39" s="21"/>
       <c r="K39" s="21"/>
       <c r="L39" s="21"/>
-      <c r="M39" s="27" t="s">
-        <v>38</v>
-      </c>
+      <c r="M39" s="27"/>
       <c r="N39" s="27"/>
       <c r="O39" s="27"/>
-      <c r="P39" s="22">
-        <v>0</v>
-      </c>
+      <c r="P39" s="22"/>
       <c r="Q39" s="22"/>
       <c r="R39" s="22"/>
       <c r="S39" s="22"/>
@@ -3931,7 +3914,7 @@
     </row>
     <row r="40" s="5" customFormat="1" customHeight="1" spans="1:82">
       <c r="A40" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B40" s="21"/>
       <c r="C40" s="21"/>
@@ -3944,9 +3927,7 @@
       <c r="J40" s="21"/>
       <c r="K40" s="21"/>
       <c r="L40" s="21"/>
-      <c r="M40" s="27" t="s">
-        <v>40</v>
-      </c>
+      <c r="M40" s="27"/>
       <c r="N40" s="27"/>
       <c r="O40" s="27"/>
       <c r="P40" s="22"/>
@@ -4019,7 +4000,7 @@
     </row>
     <row r="41" s="5" customFormat="1" customHeight="1" spans="1:82">
       <c r="A41" s="21" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B41" s="21"/>
       <c r="C41" s="21"/>
@@ -4105,7 +4086,7 @@
     </row>
     <row r="42" s="5" customFormat="1" customHeight="1" spans="1:82">
       <c r="A42" s="21" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B42" s="21"/>
       <c r="C42" s="21"/>
@@ -4191,7 +4172,7 @@
     </row>
     <row r="43" s="5" customFormat="1" customHeight="1" spans="1:82">
       <c r="A43" s="21" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B43" s="21"/>
       <c r="C43" s="21"/>
@@ -4277,7 +4258,7 @@
     </row>
     <row r="44" s="5" customFormat="1" customHeight="1" spans="1:82">
       <c r="A44" s="21" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B44" s="21"/>
       <c r="C44" s="21"/>
@@ -4685,7 +4666,7 @@
     </row>
     <row r="48" s="5" customFormat="1" customHeight="1" spans="1:82">
       <c r="A48" s="19" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B48" s="20"/>
       <c r="C48" s="20"/>
@@ -4771,7 +4752,7 @@
     </row>
     <row r="49" s="5" customFormat="1" customHeight="1" spans="1:82">
       <c r="A49" s="21" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B49" s="21"/>
       <c r="C49" s="21"/>
@@ -4857,7 +4838,7 @@
     </row>
     <row r="50" s="5" customFormat="1" customHeight="1" spans="1:82">
       <c r="A50" s="21" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B50" s="21"/>
       <c r="C50" s="21"/>
@@ -4943,7 +4924,7 @@
     </row>
     <row r="51" s="5" customFormat="1" customHeight="1" spans="1:82">
       <c r="A51" s="21" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B51" s="21"/>
       <c r="C51" s="21"/>
@@ -5029,7 +5010,7 @@
     </row>
     <row r="52" s="5" customFormat="1" customHeight="1" spans="1:82">
       <c r="A52" s="21" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B52" s="21"/>
       <c r="C52" s="21"/>
@@ -5115,7 +5096,7 @@
     </row>
     <row r="53" s="5" customFormat="1" customHeight="1" spans="1:82">
       <c r="A53" s="21" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B53" s="21"/>
       <c r="C53" s="21"/>
@@ -5201,7 +5182,7 @@
     </row>
     <row r="54" s="5" customFormat="1" customHeight="1" spans="1:82">
       <c r="A54" s="21" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B54" s="21"/>
       <c r="C54" s="21"/>
@@ -5287,7 +5268,7 @@
     </row>
     <row r="55" s="5" customFormat="1" customHeight="1" spans="1:82">
       <c r="A55" s="19" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B55" s="20"/>
       <c r="C55" s="20"/>
@@ -5373,7 +5354,7 @@
     </row>
     <row r="56" s="5" customFormat="1" customHeight="1" spans="1:82">
       <c r="A56" s="21" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B56" s="21"/>
       <c r="C56" s="21"/>
@@ -5459,7 +5440,7 @@
     </row>
     <row r="57" s="5" customFormat="1" customHeight="1" spans="1:82">
       <c r="A57" s="21" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B57" s="21"/>
       <c r="C57" s="21"/>
@@ -5545,7 +5526,7 @@
     </row>
     <row r="58" s="5" customFormat="1" customHeight="1" spans="1:82">
       <c r="A58" s="21" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B58" s="21"/>
       <c r="C58" s="21"/>
@@ -5631,7 +5612,7 @@
     </row>
     <row r="59" s="5" customFormat="1" customHeight="1" spans="1:82">
       <c r="A59" s="21" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B59" s="21"/>
       <c r="C59" s="21"/>
@@ -5717,7 +5698,7 @@
     </row>
     <row r="60" s="5" customFormat="1" customHeight="1" spans="1:82">
       <c r="A60" s="21" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B60" s="21"/>
       <c r="C60" s="21"/>
@@ -5803,7 +5784,7 @@
     </row>
     <row r="61" s="5" customFormat="1" customHeight="1" spans="1:82">
       <c r="A61" s="21" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B61" s="21"/>
       <c r="C61" s="21"/>
@@ -5889,7 +5870,7 @@
     </row>
     <row r="62" s="5" customFormat="1" customHeight="1" spans="1:82">
       <c r="A62" s="19" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B62" s="20"/>
       <c r="C62" s="20"/>
@@ -5975,7 +5956,7 @@
     </row>
     <row r="63" s="5" customFormat="1" customHeight="1" spans="1:82">
       <c r="A63" s="21" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B63" s="21"/>
       <c r="C63" s="21"/>
@@ -6061,7 +6042,7 @@
     </row>
     <row r="64" s="5" customFormat="1" customHeight="1" spans="1:82">
       <c r="A64" s="21" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B64" s="21"/>
       <c r="C64" s="21"/>
@@ -6147,7 +6128,7 @@
     </row>
     <row r="65" s="5" customFormat="1" customHeight="1" spans="1:82">
       <c r="A65" s="21" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B65" s="21"/>
       <c r="C65" s="21"/>
@@ -6233,7 +6214,7 @@
     </row>
     <row r="66" s="5" customFormat="1" customHeight="1" spans="1:82">
       <c r="A66" s="21" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B66" s="21"/>
       <c r="C66" s="21"/>
@@ -6319,7 +6300,7 @@
     </row>
     <row r="67" s="5" customFormat="1" customHeight="1" spans="1:82">
       <c r="A67" s="21" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B67" s="21"/>
       <c r="C67" s="21"/>
@@ -6405,7 +6386,7 @@
     </row>
     <row r="68" s="5" customFormat="1" customHeight="1" spans="1:82">
       <c r="A68" s="21" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B68" s="21"/>
       <c r="C68" s="21"/>
@@ -6491,7 +6472,7 @@
     </row>
     <row r="69" s="5" customFormat="1" customHeight="1" spans="1:82">
       <c r="A69" s="19" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B69" s="20"/>
       <c r="C69" s="20"/>
@@ -6577,7 +6558,7 @@
     </row>
     <row r="70" s="5" customFormat="1" customHeight="1" spans="1:82">
       <c r="A70" s="21" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B70" s="21"/>
       <c r="C70" s="21"/>
@@ -6663,7 +6644,7 @@
     </row>
     <row r="71" s="5" customFormat="1" customHeight="1" spans="1:82">
       <c r="A71" s="21" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B71" s="21"/>
       <c r="C71" s="21"/>
@@ -6749,7 +6730,7 @@
     </row>
     <row r="72" s="5" customFormat="1" customHeight="1" spans="1:82">
       <c r="A72" s="21" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B72" s="21"/>
       <c r="C72" s="21"/>
@@ -6835,7 +6816,7 @@
     </row>
     <row r="73" s="5" customFormat="1" customHeight="1" spans="1:82">
       <c r="A73" s="21" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B73" s="21"/>
       <c r="C73" s="21"/>
@@ -6921,7 +6902,7 @@
     </row>
     <row r="74" s="5" customFormat="1" customHeight="1" spans="1:82">
       <c r="A74" s="21" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B74" s="21"/>
       <c r="C74" s="21"/>
@@ -7007,7 +6988,7 @@
     </row>
     <row r="75" s="5" customFormat="1" customHeight="1" spans="1:82">
       <c r="A75" s="21" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B75" s="21"/>
       <c r="C75" s="21"/>
@@ -7318,7 +7299,7 @@
     </row>
     <row r="79" s="5" customFormat="1" customHeight="1" spans="1:55">
       <c r="A79" s="46" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B79" s="46"/>
       <c r="C79" s="46"/>
@@ -7361,7 +7342,7 @@
       <c r="AN79" s="46"/>
       <c r="AO79" s="3"/>
       <c r="AP79" s="46" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="AQ79" s="46"/>
       <c r="AR79" s="46"/>
@@ -7379,7 +7360,7 @@
     </row>
     <row r="80" s="5" customFormat="1" customHeight="1" spans="1:55">
       <c r="A80" s="51" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B80" s="51"/>
       <c r="C80" s="51"/>
@@ -7403,7 +7384,7 @@
       <c r="U80" s="51"/>
       <c r="V80" s="3"/>
       <c r="W80" s="51" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="X80" s="51"/>
       <c r="Y80" s="51"/>
@@ -7424,7 +7405,7 @@
       <c r="AN80" s="51"/>
       <c r="AO80" s="3"/>
       <c r="AP80" s="51" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="AQ80" s="51"/>
       <c r="AR80" s="51"/>
